--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Plaur.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Plaur.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H2">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I2">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J2">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.4235272026005</v>
+        <v>18.59297266666667</v>
       </c>
       <c r="N2">
-        <v>11.4235272026005</v>
+        <v>55.778918</v>
       </c>
       <c r="O2">
-        <v>0.1014228802345419</v>
+        <v>0.1361024717868078</v>
       </c>
       <c r="P2">
-        <v>0.1014228802345419</v>
+        <v>0.1378163998421381</v>
       </c>
       <c r="Q2">
-        <v>193.0261132269069</v>
+        <v>459.6515099621553</v>
       </c>
       <c r="R2">
-        <v>193.0261132269069</v>
+        <v>4136.863589659398</v>
       </c>
       <c r="S2">
-        <v>0.001090626899039929</v>
+        <v>0.001824926454843886</v>
       </c>
       <c r="T2">
-        <v>0.001090626899039929</v>
+        <v>0.001854772448609144</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H3">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I3">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J3">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.12714460586886</v>
+        <v>6.746562</v>
       </c>
       <c r="N3">
-        <v>6.12714460586886</v>
+        <v>20.239686</v>
       </c>
       <c r="O3">
-        <v>0.05439936742123669</v>
+        <v>0.04938552757134602</v>
       </c>
       <c r="P3">
-        <v>0.05439936742123669</v>
+        <v>0.05000743575655815</v>
       </c>
       <c r="Q3">
-        <v>103.5318503185986</v>
+        <v>166.787068746294</v>
       </c>
       <c r="R3">
-        <v>103.5318503185986</v>
+        <v>1501.083618716646</v>
       </c>
       <c r="S3">
-        <v>0.0005849707015138692</v>
+        <v>0.0006621845626179666</v>
       </c>
       <c r="T3">
-        <v>0.0005849707015138692</v>
+        <v>0.0006730143449770791</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H4">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I4">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J4">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.4349345224199</v>
+        <v>43.343503</v>
       </c>
       <c r="N4">
-        <v>33.4349345224199</v>
+        <v>130.030509</v>
       </c>
       <c r="O4">
-        <v>0.2968494143337083</v>
+        <v>0.3172788988591848</v>
       </c>
       <c r="P4">
-        <v>0.2968494143337083</v>
+        <v>0.3212743678538321</v>
       </c>
       <c r="Q4">
-        <v>564.9582079508393</v>
+        <v>1071.528848999861</v>
       </c>
       <c r="R4">
-        <v>564.9582079508393</v>
+        <v>9643.759640998747</v>
       </c>
       <c r="S4">
-        <v>0.00319209980517128</v>
+        <v>0.004254225867395204</v>
       </c>
       <c r="T4">
-        <v>0.00319209980517128</v>
+        <v>0.004323802149977582</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H5">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I5">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J5">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.5677814568264</v>
+        <v>62.83028666666667</v>
       </c>
       <c r="N5">
-        <v>57.5677814568264</v>
+        <v>188.49086</v>
       </c>
       <c r="O5">
-        <v>0.5111109817933327</v>
+        <v>0.4599241590742428</v>
       </c>
       <c r="P5">
-        <v>0.5111109817933327</v>
+        <v>0.4657159489602949</v>
       </c>
       <c r="Q5">
-        <v>972.7367830119584</v>
+        <v>1553.276964122273</v>
       </c>
       <c r="R5">
-        <v>972.7367830119584</v>
+        <v>13979.49267710046</v>
       </c>
       <c r="S5">
-        <v>0.005496110777464097</v>
+        <v>0.006166881130793451</v>
       </c>
       <c r="T5">
-        <v>0.005496110777464097</v>
+        <v>0.00626773817919242</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H6">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I6">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J6">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.07925660360341</v>
+        <v>5.0967785</v>
       </c>
       <c r="N6">
-        <v>4.07925660360341</v>
+        <v>10.193557</v>
       </c>
       <c r="O6">
-        <v>0.0362173562171804</v>
+        <v>0.03730894270841855</v>
       </c>
       <c r="P6">
-        <v>0.0362173562171804</v>
+        <v>0.02518584758717668</v>
       </c>
       <c r="Q6">
-        <v>68.92818943605369</v>
+        <v>126.0014724631795</v>
       </c>
       <c r="R6">
-        <v>68.92818943605369</v>
+        <v>756.0088347790769</v>
       </c>
       <c r="S6">
-        <v>0.0003894547543042014</v>
+        <v>0.000500255988425387</v>
       </c>
       <c r="T6">
-        <v>0.0003894547543042014</v>
+        <v>0.0003389583260996005</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H7">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J7">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.4235272026005</v>
+        <v>18.59297266666667</v>
       </c>
       <c r="N7">
-        <v>11.4235272026005</v>
+        <v>55.778918</v>
       </c>
       <c r="O7">
-        <v>0.1014228802345419</v>
+        <v>0.1361024717868078</v>
       </c>
       <c r="P7">
-        <v>0.1014228802345419</v>
+        <v>0.1378163998421381</v>
       </c>
       <c r="Q7">
-        <v>15304.35133570155</v>
+        <v>27113.77850682006</v>
       </c>
       <c r="R7">
-        <v>15304.35133570155</v>
+        <v>244024.0065613805</v>
       </c>
       <c r="S7">
-        <v>0.08647191284141281</v>
+        <v>0.1076481869752748</v>
       </c>
       <c r="T7">
-        <v>0.08647191284141281</v>
+        <v>0.1094087330557908</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H8">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J8">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.12714460586886</v>
+        <v>6.746562</v>
       </c>
       <c r="N8">
-        <v>6.12714460586886</v>
+        <v>20.239686</v>
       </c>
       <c r="O8">
-        <v>0.05439936742123669</v>
+        <v>0.04938552757134602</v>
       </c>
       <c r="P8">
-        <v>0.05439936742123669</v>
+        <v>0.05000743575655815</v>
       </c>
       <c r="Q8">
-        <v>8208.670760771594</v>
+        <v>9838.383083221277</v>
       </c>
       <c r="R8">
-        <v>8208.670760771594</v>
+        <v>88545.4477489915</v>
       </c>
       <c r="S8">
-        <v>0.04638023833871669</v>
+        <v>0.03906073443104169</v>
       </c>
       <c r="T8">
-        <v>0.04638023833871669</v>
+        <v>0.0396995582221051</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H9">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J9">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.4349345224199</v>
+        <v>43.343503</v>
       </c>
       <c r="N9">
-        <v>33.4349345224199</v>
+        <v>130.030509</v>
       </c>
       <c r="O9">
-        <v>0.2968494143337083</v>
+        <v>0.3172788988591848</v>
       </c>
       <c r="P9">
-        <v>0.2968494143337083</v>
+        <v>0.3212743678538321</v>
       </c>
       <c r="Q9">
-        <v>44793.51917687957</v>
+        <v>63207.00627708612</v>
       </c>
       <c r="R9">
-        <v>44793.51917687957</v>
+        <v>568863.0564937751</v>
       </c>
       <c r="S9">
-        <v>0.2530901964520098</v>
+        <v>0.2509469356383383</v>
       </c>
       <c r="T9">
-        <v>0.2530901964520098</v>
+        <v>0.2550510794829258</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H10">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J10">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.5677814568264</v>
+        <v>62.83028666666667</v>
       </c>
       <c r="N10">
-        <v>57.5677814568264</v>
+        <v>188.49086</v>
       </c>
       <c r="O10">
-        <v>0.5111109817933327</v>
+        <v>0.4599241590742428</v>
       </c>
       <c r="P10">
-        <v>0.5111109817933327</v>
+        <v>0.4657159489602949</v>
       </c>
       <c r="Q10">
-        <v>77124.8264574179</v>
+        <v>91624.21236998588</v>
       </c>
       <c r="R10">
-        <v>77124.8264574179</v>
+        <v>824617.911329873</v>
       </c>
       <c r="S10">
-        <v>0.4357670001849325</v>
+        <v>0.3637700419432722</v>
       </c>
       <c r="T10">
-        <v>0.4357670001849325</v>
+        <v>0.3697193657502721</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H11">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J11">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.07925660360341</v>
+        <v>5.0967785</v>
       </c>
       <c r="N11">
-        <v>4.07925660360341</v>
+        <v>10.193557</v>
       </c>
       <c r="O11">
-        <v>0.0362173562171804</v>
+        <v>0.03730894270841855</v>
       </c>
       <c r="P11">
-        <v>0.0362173562171804</v>
+        <v>0.02518584758717668</v>
       </c>
       <c r="Q11">
-        <v>5465.070038596775</v>
+        <v>7432.535174704674</v>
       </c>
       <c r="R11">
-        <v>5465.070038596775</v>
+        <v>44595.21104822805</v>
       </c>
       <c r="S11">
-        <v>0.03087847695624625</v>
+        <v>0.02950894269441873</v>
       </c>
       <c r="T11">
-        <v>0.03087847695624625</v>
+        <v>0.01999436698829453</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H12">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I12">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J12">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.4235272026005</v>
+        <v>18.59297266666667</v>
       </c>
       <c r="N12">
-        <v>11.4235272026005</v>
+        <v>55.778918</v>
       </c>
       <c r="O12">
-        <v>0.1014228802345419</v>
+        <v>0.1361024717868078</v>
       </c>
       <c r="P12">
-        <v>0.1014228802345419</v>
+        <v>0.1378163998421381</v>
       </c>
       <c r="Q12">
-        <v>626.5732629510054</v>
+        <v>1117.433752742407</v>
       </c>
       <c r="R12">
-        <v>626.5732629510054</v>
+        <v>10056.90377468166</v>
       </c>
       <c r="S12">
-        <v>0.003540234237583602</v>
+        <v>0.004436479316869854</v>
       </c>
       <c r="T12">
-        <v>0.003540234237583602</v>
+        <v>0.004509036286866939</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H13">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I13">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J13">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.12714460586886</v>
+        <v>6.746562</v>
       </c>
       <c r="N13">
-        <v>6.12714460586886</v>
+        <v>20.239686</v>
       </c>
       <c r="O13">
-        <v>0.05439936742123669</v>
+        <v>0.04938552757134602</v>
       </c>
       <c r="P13">
-        <v>0.05439936742123669</v>
+        <v>0.05000743575655815</v>
       </c>
       <c r="Q13">
-        <v>336.0700176209983</v>
+        <v>405.4669594219801</v>
       </c>
       <c r="R13">
-        <v>336.0700176209983</v>
+        <v>3649.20263479782</v>
       </c>
       <c r="S13">
-        <v>0.001898846715871143</v>
+        <v>0.00160980082688123</v>
       </c>
       <c r="T13">
-        <v>0.001898846715871143</v>
+        <v>0.001636128520972615</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H14">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I14">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J14">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.4349345224199</v>
+        <v>43.343503</v>
       </c>
       <c r="N14">
-        <v>33.4349345224199</v>
+        <v>130.030509</v>
       </c>
       <c r="O14">
-        <v>0.2968494143337083</v>
+        <v>0.3172788988591848</v>
       </c>
       <c r="P14">
-        <v>0.2968494143337083</v>
+        <v>0.3212743678538321</v>
       </c>
       <c r="Q14">
-        <v>1833.885073210736</v>
+        <v>2604.93542816437</v>
       </c>
       <c r="R14">
-        <v>1833.885073210736</v>
+        <v>23444.41885347933</v>
       </c>
       <c r="S14">
-        <v>0.01036172959790311</v>
+        <v>0.0103422168164065</v>
       </c>
       <c r="T14">
-        <v>0.01036172959790311</v>
+        <v>0.01051135992779168</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H15">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I15">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J15">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>57.5677814568264</v>
+        <v>62.83028666666667</v>
       </c>
       <c r="N15">
-        <v>57.5677814568264</v>
+        <v>188.49086</v>
       </c>
       <c r="O15">
-        <v>0.5111109817933327</v>
+        <v>0.4599241590742428</v>
       </c>
       <c r="P15">
-        <v>0.5111109817933327</v>
+        <v>0.4657159489602949</v>
       </c>
       <c r="Q15">
-        <v>3157.556508469895</v>
+        <v>3776.087034306467</v>
       </c>
       <c r="R15">
-        <v>3157.556508469895</v>
+        <v>33984.7833087582</v>
       </c>
       <c r="S15">
-        <v>0.01784067453779009</v>
+        <v>0.0149919688619455</v>
       </c>
       <c r="T15">
-        <v>0.01784067453779009</v>
+        <v>0.01523715693952249</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H16">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I16">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J16">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.07925660360341</v>
+        <v>5.0967785</v>
       </c>
       <c r="N16">
-        <v>4.07925660360341</v>
+        <v>10.193557</v>
       </c>
       <c r="O16">
-        <v>0.0362173562171804</v>
+        <v>0.03730894270841855</v>
       </c>
       <c r="P16">
-        <v>0.0362173562171804</v>
+        <v>0.02518584758717668</v>
       </c>
       <c r="Q16">
-        <v>223.7446521729625</v>
+        <v>306.3153175265151</v>
       </c>
       <c r="R16">
-        <v>223.7446521729625</v>
+        <v>1837.89190515909</v>
       </c>
       <c r="S16">
-        <v>0.001264191316380659</v>
+        <v>0.00121614508896983</v>
       </c>
       <c r="T16">
-        <v>0.001264191316380659</v>
+        <v>0.0008240231265376373</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H17">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I17">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J17">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.4235272026005</v>
+        <v>18.59297266666667</v>
       </c>
       <c r="N17">
-        <v>11.4235272026005</v>
+        <v>55.778918</v>
       </c>
       <c r="O17">
-        <v>0.1014228802345419</v>
+        <v>0.1361024717868078</v>
       </c>
       <c r="P17">
-        <v>0.1014228802345419</v>
+        <v>0.1378163998421381</v>
       </c>
       <c r="Q17">
-        <v>1592.676222076119</v>
+        <v>5209.172904272767</v>
       </c>
       <c r="R17">
-        <v>1592.676222076119</v>
+        <v>46882.5561384549</v>
       </c>
       <c r="S17">
-        <v>0.008998862901081173</v>
+        <v>0.02068166259618297</v>
       </c>
       <c r="T17">
-        <v>0.008998862901081173</v>
+        <v>0.02101990349967935</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H18">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I18">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J18">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.12714460586886</v>
+        <v>6.746562</v>
       </c>
       <c r="N18">
-        <v>6.12714460586886</v>
+        <v>20.239686</v>
       </c>
       <c r="O18">
-        <v>0.05439936742123669</v>
+        <v>0.04938552757134602</v>
       </c>
       <c r="P18">
-        <v>0.05439936742123669</v>
+        <v>0.05000743575655815</v>
       </c>
       <c r="Q18">
-        <v>854.2508237532631</v>
+        <v>1890.176928533982</v>
       </c>
       <c r="R18">
-        <v>854.2508237532631</v>
+        <v>17011.59235680584</v>
       </c>
       <c r="S18">
-        <v>0.004826647085915917</v>
+        <v>0.007504454584520409</v>
       </c>
       <c r="T18">
-        <v>0.004826647085915917</v>
+        <v>0.007627187149521457</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H19">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I19">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J19">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.4349345224199</v>
+        <v>43.343503</v>
       </c>
       <c r="N19">
-        <v>33.4349345224199</v>
+        <v>130.030509</v>
       </c>
       <c r="O19">
-        <v>0.2968494143337083</v>
+        <v>0.3172788988591848</v>
       </c>
       <c r="P19">
-        <v>0.2968494143337083</v>
+        <v>0.3212743678538321</v>
       </c>
       <c r="Q19">
-        <v>4661.522160021455</v>
+        <v>12143.50203443523</v>
       </c>
       <c r="R19">
-        <v>4661.522160021455</v>
+        <v>109291.5183099171</v>
       </c>
       <c r="S19">
-        <v>0.02633830922251315</v>
+        <v>0.04821260811025291</v>
       </c>
       <c r="T19">
-        <v>0.02633830922251315</v>
+        <v>0.04900110739319444</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H20">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I20">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J20">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>57.5677814568264</v>
+        <v>62.83028666666667</v>
       </c>
       <c r="N20">
-        <v>57.5677814568264</v>
+        <v>188.49086</v>
       </c>
       <c r="O20">
-        <v>0.5111109817933327</v>
+        <v>0.4599241590742428</v>
       </c>
       <c r="P20">
-        <v>0.5111109817933327</v>
+        <v>0.4657159489602949</v>
       </c>
       <c r="Q20">
-        <v>8026.140705743665</v>
+        <v>17603.09299321782</v>
       </c>
       <c r="R20">
-        <v>8026.140705743665</v>
+        <v>158427.8369389604</v>
       </c>
       <c r="S20">
-        <v>0.0453489157649534</v>
+        <v>0.06988849028918703</v>
       </c>
       <c r="T20">
-        <v>0.0453489157649534</v>
+        <v>0.07103149056730662</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H21">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I21">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J21">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.07925660360341</v>
+        <v>5.0967785</v>
       </c>
       <c r="N21">
-        <v>4.07925660360341</v>
+        <v>10.193557</v>
       </c>
       <c r="O21">
-        <v>0.0362173562171804</v>
+        <v>0.03730894270841855</v>
       </c>
       <c r="P21">
-        <v>0.0362173562171804</v>
+        <v>0.02518584758717668</v>
       </c>
       <c r="Q21">
-        <v>568.7328336581672</v>
+        <v>1427.958881953214</v>
       </c>
       <c r="R21">
-        <v>568.7328336581672</v>
+        <v>8567.753291719282</v>
       </c>
       <c r="S21">
-        <v>0.003213427014538959</v>
+        <v>0.005669338365320005</v>
       </c>
       <c r="T21">
-        <v>0.003213427014538959</v>
+        <v>0.003841372191165144</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H22">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I22">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J22">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.4235272026005</v>
+        <v>18.59297266666667</v>
       </c>
       <c r="N22">
-        <v>11.4235272026005</v>
+        <v>55.778918</v>
       </c>
       <c r="O22">
-        <v>0.1014228802345419</v>
+        <v>0.1361024717868078</v>
       </c>
       <c r="P22">
-        <v>0.1014228802345419</v>
+        <v>0.1378163998421381</v>
       </c>
       <c r="Q22">
-        <v>233.8420863715588</v>
+        <v>380.6361173368521</v>
       </c>
       <c r="R22">
-        <v>233.8420863715588</v>
+        <v>2283.816704021112</v>
       </c>
       <c r="S22">
-        <v>0.001321243355424357</v>
+        <v>0.001511216443636342</v>
       </c>
       <c r="T22">
-        <v>0.001321243355424357</v>
+        <v>0.001023954551191876</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H23">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I23">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J23">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.12714460586886</v>
+        <v>6.746562</v>
       </c>
       <c r="N23">
-        <v>6.12714460586886</v>
+        <v>20.239686</v>
       </c>
       <c r="O23">
-        <v>0.05439936742123669</v>
+        <v>0.04938552757134602</v>
       </c>
       <c r="P23">
-        <v>0.05439936742123669</v>
+        <v>0.05000743575655815</v>
       </c>
       <c r="Q23">
-        <v>125.4239826916551</v>
+        <v>138.115900619604</v>
       </c>
       <c r="R23">
-        <v>125.4239826916551</v>
+        <v>828.695403717624</v>
       </c>
       <c r="S23">
-        <v>0.0007086645792190648</v>
+        <v>0.0005483531662847287</v>
       </c>
       <c r="T23">
-        <v>0.0007086645792190648</v>
+        <v>0.0003715475189818939</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H24">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I24">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J24">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.4349345224199</v>
+        <v>43.343503</v>
       </c>
       <c r="N24">
-        <v>33.4349345224199</v>
+        <v>130.030509</v>
       </c>
       <c r="O24">
-        <v>0.2968494143337083</v>
+        <v>0.3172788988591848</v>
       </c>
       <c r="P24">
-        <v>0.2968494143337083</v>
+        <v>0.3212743678538321</v>
       </c>
       <c r="Q24">
-        <v>684.420381529734</v>
+        <v>887.330013843126</v>
       </c>
       <c r="R24">
-        <v>684.420381529734</v>
+        <v>5323.980083058756</v>
       </c>
       <c r="S24">
-        <v>0.003867079256110968</v>
+        <v>0.003522912426791844</v>
       </c>
       <c r="T24">
-        <v>0.003867079256110968</v>
+        <v>0.002387018899942559</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H25">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I25">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J25">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>57.5677814568264</v>
+        <v>62.83028666666667</v>
       </c>
       <c r="N25">
-        <v>57.5677814568264</v>
+        <v>188.49086</v>
       </c>
       <c r="O25">
-        <v>0.5111109817933327</v>
+        <v>0.4599241590742428</v>
       </c>
       <c r="P25">
-        <v>0.5111109817933327</v>
+        <v>0.4657159489602949</v>
       </c>
       <c r="Q25">
-        <v>1178.425006996239</v>
+        <v>1286.26426751204</v>
       </c>
       <c r="R25">
-        <v>1178.425006996239</v>
+        <v>7717.58560507224</v>
       </c>
       <c r="S25">
-        <v>0.006658280528192601</v>
+        <v>0.005106776849044572</v>
       </c>
       <c r="T25">
-        <v>0.006658280528192601</v>
+        <v>0.003460197524001286</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.4702174927483</v>
+        <v>20.472042</v>
       </c>
       <c r="H26">
-        <v>20.4702174927483</v>
+        <v>40.944084</v>
       </c>
       <c r="I26">
-        <v>0.01302707389465733</v>
+        <v>0.01110351945704208</v>
       </c>
       <c r="J26">
-        <v>0.01302707389465733</v>
+        <v>0.00742984544919738</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.07925660360341</v>
+        <v>5.0967785</v>
       </c>
       <c r="N26">
-        <v>4.07925660360341</v>
+        <v>10.193557</v>
       </c>
       <c r="O26">
-        <v>0.0362173562171804</v>
+        <v>0.03730894270841855</v>
       </c>
       <c r="P26">
-        <v>0.0362173562171804</v>
+        <v>0.02518584758717668</v>
       </c>
       <c r="Q26">
-        <v>83.50326988449154</v>
+        <v>104.341463516697</v>
       </c>
       <c r="R26">
-        <v>83.50326988449154</v>
+        <v>417.3658540667881</v>
       </c>
       <c r="S26">
-        <v>0.0004718061757103361</v>
+        <v>0.0004142605712845936</v>
       </c>
       <c r="T26">
-        <v>0.0004718061757103361</v>
+        <v>0.0001871269550797634</v>
       </c>
     </row>
   </sheetData>
